--- a/report/reliability/comb/Instituto de Psicologia - IP-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Psicologia - IP-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1819,6 +1817,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3400,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.80500064008667</v>
+        <v>0.776045630939201</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8133688679427623</v>
+        <v>0.8128730474159623</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9073028770618583</v>
+        <v>0.9063167337210492</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.26642129046427876</v>
+        <v>0.25045976856909835</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.35816285834515</v>
+        <v>4.3439656136702505</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03263450584250791</v>
+        <v>0.03486219334864122</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5274261603375527</v>
+        <v>1.931840311587147</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7890726190347006</v>
+        <v>0.6663996592186472</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2369659731811919</v>
+        <v>0.20891795872359992</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7830401003674773</v>
+        <v>0.7749966408042115</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7873578036987577</v>
+        <v>0.7982284437005948</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8830206531413773</v>
+        <v>0.8988153789053889</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2518399029349542</v>
+        <v>0.24793652346581618</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.7027354748694226</v>
+        <v>3.956099949569296</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.036113961839534775</v>
+        <v>0.03574198729339004</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.046493128108733836</v>
+        <v>0.05591102933741569</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.20624312085788277</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7883966484922854</v>
+        <v>0.755417718950431</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7943914943266386</v>
+        <v>0.7924336845022659</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8858114548363129</v>
+        <v>0.890379163574099</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.25993762594281167</v>
+        <v>0.24135799572595906</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.863612021910433</v>
+        <v>3.817737394442099</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03524013416020316</v>
+        <v>0.037533322299018665</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.045964082314314286</v>
+        <v>0.05475314008483427</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.20891795872359992</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7855133620372716</v>
+        <v>0.7631395703960093</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7858343315112807</v>
+        <v>0.7989293655556111</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8879224876028431</v>
+        <v>0.8904104446348622</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2501337384480943</v>
+        <v>0.24874995082384335</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.669282462761635</v>
+        <v>3.9733766582239296</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.036018574160187805</v>
+        <v>0.036339861339023255</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04702543827790707</v>
+        <v>0.05346546122684813</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.21598210211194435</v>
+        <v>0.2090011520660732</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7869154843734129</v>
+        <v>0.7652217006456231</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7928909086569431</v>
+        <v>0.7977742538156394</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8912099614820084</v>
+        <v>0.8912640562584554</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2581789113404144</v>
+        <v>0.24741150824709773</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.828373267031495</v>
+        <v>3.94496877310737</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03559858089541711</v>
+        <v>0.03720658444407123</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04649174705451892</v>
+        <v>0.041683915064181946</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.21589890876947104</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7886837285282907</v>
+        <v>0.7470665627754288</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8024556792284417</v>
+        <v>0.7948520354490782</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8741662000573225</v>
+        <v>0.8868262191710301</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2696928232901921</v>
+        <v>0.24407212939965225</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.062155146218587</v>
+        <v>3.8745304501999134</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03534416903565418</v>
+        <v>0.039286976398224524</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04278558200113674</v>
+        <v>0.04192332387728502</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.21589890876947104</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7885730106423209</v>
+        <v>0.7476761545017445</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8023961076400692</v>
+        <v>0.7952098518567319</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8732541602135631</v>
+        <v>0.8875240020151963</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2696188216078934</v>
+        <v>0.24447747970513972</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.060629059768334</v>
+        <v>3.883047397868061</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03536525949750782</v>
+        <v>0.039169414883564284</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.042239704046958655</v>
+        <v>0.041450555793526175</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.21589890876947104</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8095829927659673</v>
+        <v>0.7777429879178268</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8219608383296013</v>
+        <v>0.8054053227104002</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9096833078070957</v>
+        <v>0.9041112909064773</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2956277214301179</v>
+        <v>0.2564542883720905</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.616741792186629</v>
+        <v>4.138886705065318</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0322574409220348</v>
+        <v>0.03544696656348152</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04728648299354879</v>
+        <v>0.05955179462073998</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2638799214884816</v>
+        <v>0.21589890876947104</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.816319847357969</v>
+        <v>0.7775158880102728</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8214946797587308</v>
+        <v>0.8148307175289311</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9089649844846228</v>
+        <v>0.9037977721442145</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.29496552491243966</v>
+        <v>0.2683133737294063</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.602073925014627</v>
+        <v>4.4004637629691175</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.030744045649601606</v>
+        <v>0.034353130196686184</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04681586166006957</v>
+        <v>0.053565796902588725</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2590487424452708</v>
+        <v>0.21771005084908024</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7982459709032043</v>
+        <v>0.7878447853762037</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8095069314659149</v>
+        <v>0.8186564289288006</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9043104922940729</v>
+        <v>0.9076131294281291</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.27866652225160793</v>
+        <v>0.27336119022479194</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.249534839747039</v>
+        <v>4.514394550041034</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03423744051378364</v>
+        <v>0.03217705492806233</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.050634603379255634</v>
+        <v>0.05243754801585914</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.23989719019151712</v>
+        <v>0.22170910723750004</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7770401334808524</v>
+        <v>0.7584960504562167</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7879992539064505</v>
+        <v>0.803106752505486</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8954741334908058</v>
+        <v>0.9024883104584451</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2525632594705971</v>
+        <v>0.25368002629234904</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.716964531618818</v>
+        <v>4.078894338557056</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03760497897103269</v>
+        <v>0.037951720501120424</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.054153940904747455</v>
+        <v>0.05753099536447728</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.208304288145528</v>
+        <v>0.20891795872359992</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7820440352316963</v>
+        <v>0.7434927893933669</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7932911708152095</v>
+        <v>0.7939858106603984</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8905303891994907</v>
+        <v>0.8975388314600603</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25864634315344576</v>
+        <v>0.24309487683619332</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.8377227230387643</v>
+        <v>3.854034584732231</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03674539503637165</v>
+        <v>0.04016440236382327</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05158788000250416</v>
+        <v>0.05980867865933398</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.21581571542699776</v>
+        <v>0.19193549167998414</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7818122058778716</v>
+        <v>0.7461063358345552</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7920357282312592</v>
+        <v>0.7949633473787995</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.888950593659562</v>
+        <v>0.8890550301013734</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2571842907887774</v>
+        <v>0.2441981234606181</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.8085182685226524</v>
+        <v>3.8771767740837655</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03654661495454422</v>
+        <v>0.03966559443614163</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05230422617601342</v>
+        <v>0.057294420665796514</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.21598210211194435</v>
+        <v>0.19193549167998414</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7448750853427151</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7937853419396392</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8886591197191541</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.24286952511532062</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.8493158023097047</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.039533993565803</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05775012928292764</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.19410074719778864</v>
       </c>
     </row>
     <row r="24">
@@ -4556,182 +4583,161 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>79.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6403118065923089</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6890945684330195</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6853161709926456</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.55605796287765</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3417721518987342</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1970698836718046</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5834876085775343</v>
+        <v>0.45913150020157656</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6242455107768846</v>
+        <v>0.5781608396363893</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6155702601253925</v>
+        <v>0.5414553044347059</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4813848503800141</v>
+        <v>0.43867817375273555</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.810126582278481</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3016355526708046</v>
+        <v>0.22064789082034392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6558995308559036</v>
+        <v>0.574764302112245</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7027580586600706</v>
+        <v>0.6383296836851506</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.688833595263577</v>
+        <v>0.6249086073419213</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5975089593363089</v>
+        <v>0.4707130569880746</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5949367088607596</v>
+        <v>3.3417721518987342</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.8846118566741669</v>
+        <v>1.1970698836718046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5981274287751586</v>
+        <v>0.5112923808718938</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6383298384997369</v>
+        <v>0.5707210315538596</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6180034308372827</v>
+        <v>0.5577094934477308</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.49908489510322634</v>
+        <v>0.38731694187352317</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.759493670886076</v>
+        <v>3.810126582278481</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.293129674753719</v>
+        <v>1.3016355526708046</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6198675295446997</v>
+        <v>0.6264160967324898</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5461228885763718</v>
+        <v>0.5829627588601852</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5689642630830473</v>
+        <v>0.6017138266530975</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.48426682040647495</v>
+        <v>0.596076618731431</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8734177215189873</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7567969732791968</v>
+        <v>0.413579932929269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6206382299780404</v>
+        <v>0.6698057798060952</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5467155168198155</v>
+        <v>0.6135055448811875</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5696951574685979</v>
+        <v>0.6407654450792196</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4852123830524483</v>
+        <v>0.5324003994435318</v>
       </c>
       <c r="G32" t="n" s="89">
         <v>0.8734177215189873</v>
@@ -4742,272 +4748,272 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.2942295238368858</v>
+        <v>0.666436277984605</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.33842824365580915</v>
+        <v>0.6097981105918664</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2571901478519729</v>
+        <v>0.6367843765277862</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.19039995076873947</v>
+        <v>0.5280904178274518</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.037974683544304</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.0308452839058149</v>
+        <v>1.7567969732791968</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.310069119339112</v>
+        <v>0.3672165534858636</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.34373131713868016</v>
+        <v>0.5002552521620756</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.26125526915825636</v>
+        <v>0.43277874150196355</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.1665964249004163</v>
+        <v>0.3512712493721575</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.151898734177215</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4150166040063847</v>
+        <v>0.1580882214188629</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5208387882251555</v>
+        <v>0.319648402624035</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.47425874593121337</v>
+        <v>0.3917891202793841</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4094409036085154</v>
+        <v>0.3332922385008843</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.383289714178691</v>
+        <v>0.2071727428742292</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3544303797468353</v>
+        <v>3.037974683544304</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5773880933410003</v>
+        <v>1.0308452839058149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6877690109491305</v>
+        <v>0.3112767585197255</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6833017067062928</v>
+        <v>0.34562054039220363</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6408062004871187</v>
+        <v>0.2722587090203595</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5920867599103661</v>
+        <v>0.1538214642830355</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2025316455696204</v>
+        <v>3.151898734177215</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4621703821886904</v>
+        <v>1.4150166040063847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6462545776103058</v>
+        <v>0.5796205077288699</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6345865007041405</v>
+        <v>0.5256293402600888</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6063169922003098</v>
+        <v>0.4633538163761093</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5422214914275808</v>
+        <v>0.4384553815068417</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2658227848101267</v>
+        <v>1.3544303797468353</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4562760794142697</v>
+        <v>1.5773880933410003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>79.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6471745063868206</v>
+        <v>0.6732349609645876</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6462950659391657</v>
+        <v>0.6224437388680825</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6204199393696688</v>
+        <v>0.5754636445473693</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5487336334629601</v>
+        <v>0.5635652271969102</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2025316455696204</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4621703821886904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>79.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6550568326459422</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6123531719939539</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5879673052204921</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.541723790363239</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2658227848101267</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.4562760794142697</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>79.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6627236181244706</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.62450486152128</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6012991943472218</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5570341808121078</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0632911392405062</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.389906583762789</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.012658227848101266</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3291139240506329</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.45569620253164556</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.25316455696202533</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3924050632911392</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.012658227848101266</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02531645569620253</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.0379746835443038</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.27848101265822783</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.569620253164557</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.0759493670886076</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.012658227848101266</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.12658227848101267</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.31645569620253167</v>
+        <v>0.3291139240506329</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06329113924050633</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.45569620253164556</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7848101265822784</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.012658227848101266</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.05063291139240506</v>
+        <v>0.25316455696202533</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05063291139240506</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.10126582278481013</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7848101265822784</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.012658227848101266</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05063291139240506</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05063291139240506</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10126582278481013</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.02531645569620253</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.11392405063291139</v>
+        <v>0.012658227848101266</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5316455696202531</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.31645569620253167</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.012658227848101266</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.02531645569620253</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.11392405063291139</v>
+        <v>0.012658227848101266</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.189873417721519</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.26582278481012656</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.16455696202531644</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.24050632911392406</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4936708860759494</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13924050632911392</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.02531645569620253</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.20253164556962025</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.13924050632911392</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.24050632911392406</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.08860759493670886</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06329113924050633</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4430379746835443</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.16455696202531644</v>
+        <v>0.31645569620253167</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.012658227848101266</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.20253164556962025</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C53" t="n" s="110">
         <v>0.11392405063291139</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.12658227848101267</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3291139240506329</v>
+        <v>0.26582278481012656</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.22784810126582278</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.21518987341772153</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.11392405063291139</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.22784810126582278</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.27848101265822783</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.16455696202531644</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3291139240506329</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8782875588717786</v>
+        <v>0.8735978462919045</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8853382226497658</v>
+        <v>0.9879866369091952</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8938676642739257</v>
+        <v>0.9841326198776476</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.658740985884782</v>
+        <v>0.9648055188883587</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.721302103537975</v>
+        <v>82.24063731707334</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.021687882932839065</v>
+        <v>0.003415607303245504</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6265822784810124</v>
+        <v>0.6540084388185654</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0110554095698134</v>
+        <v>1.2991812433458916</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.671436492916986</v>
+        <v>0.9555161971462934</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8265961930181921</v>
+        <v>0.9916224814422057</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8399308931464957</v>
+        <v>0.9916224814422059</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7916182252237252</v>
+        <v>0.9833841623724894</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6362446631916905</v>
+        <v>0.9833841623724895</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.247301678987955</v>
+        <v>118.36708860759688</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.031368173501589415</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.008381985147231381</v>
-      </c>
+        <v>0.001885088953829242</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6656525627421849</v>
+        <v>0.9833841623724895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8317836953287712</v>
+        <v>0.5977364817661031</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.850135209788245</v>
+        <v>0.9772521429796275</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7990271947308327</v>
+        <v>0.9555161971462935</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.654086221159353</v>
+        <v>0.9555161971462933</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.672681412271865</v>
+        <v>42.960184869476535</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03193797782754956</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.004885189909147471</v>
-      </c>
+        <v>0.013165736242677377</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6772204230917872</v>
+        <v>0.9555161971462934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8621710999281094</v>
+        <v>0.5977364817661031</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8629931400447061</v>
+        <v>0.9772521429796275</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.826056423174395</v>
+        <v>0.9555161971462935</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6773813551280061</v>
+        <v>0.9555161971462933</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>6.298904597377863</v>
+        <v>42.960184869476535</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.027295277643608413</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.011699832959986278</v>
-      </c>
+        <v>0.013165736242677377</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6656525627421849</v>
+        <v>0.9555161971462934</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8510863709822232</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8574650631125594</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8287764628516933</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6672517040600785</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.0158237821348814</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.026781211532898835</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.016629521015492577</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6772204230917872</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>79.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9675005901792748</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9819320360973108</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9628389429257753</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.95951027681083</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.413579932929269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>79.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8827224903342742</v>
+        <v>0.9953924540051222</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8821467106926735</v>
+        <v>0.9913322914466155</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.850981319157562</v>
+        <v>0.9890717183686788</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.780535935946134</v>
+        <v>0.984854556511879</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3417721518987342</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1970698836718046</v>
+        <v>1.7567969732791968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>79.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8855210170077356</v>
+        <v>0.9953924540051222</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8666338710493364</v>
+        <v>0.9913322914466155</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.830469169731308</v>
+        <v>0.9890717183686788</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7716612919350602</v>
+        <v>0.984854556511879</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.810126582278481</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3016355526708046</v>
+        <v>1.7567969732791968</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>79.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8177831367786215</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8463792678145319</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7865890765451482</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7211226268631956</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5949367088607596</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.8846118566741669</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>79.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8595385704956222</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8551867751490669</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7940759834188575</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.726160964258253</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.759493670886076</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.293129674753719</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.012658227848101266</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.012658227848101266</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.05063291139240506</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.012658227848101266</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.3291139240506329</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.45569620253164556</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.25316455696202533</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3924050632911392</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.012658227848101266</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0379746835443038</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.27848101265822783</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.569620253164557</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0759493670886076</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.012658227848101266</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.31645569620253167</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.45569620253164556</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.6499392379726929</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.6717755401119032</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.5057695897036112</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.5057695897036112</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>2.046695545910671</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.07379419647800871</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>3.0949367088607596</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.0654117699427856</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.5057695897036113</v>
+      <c r="A6" t="n" s="260">
+        <v>0.5507843658601436</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.7091528298770733</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.6270851025172048</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.4483501090146437</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>2.4382318369381064</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.05402635677971864</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.388185654008439</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.7365709025174892</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.4779985086137855</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.6499392379726929</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.6717755401119032</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.5057695897036112</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.5057695897036112</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>2.046695545910671</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.07379419647800871</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.5057695897036113</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.5057695897036113</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.25580287786895906</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.5057695897036113</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5057695897036113</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.5057695897036113</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.25580287786895906</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.5057695897036113</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.25580287786895906</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.5057695897036113</v>
+      <c r="B12" t="n" s="287">
+        <v>0.14768683274021366</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.5307969517305904</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.3612822287265345</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.3612822287265345</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>1.131273451202761</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.0395922167232985</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.3612822287265344</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.2505873140172281</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.6468186616265266</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.47799850861378557</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.47799850861378546</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>1.8314066779557436</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.044848960746897704</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.4779985086137855</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>79.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8196444325144411</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8676893423638471</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6170787905821146</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5057695897036114</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.5258833323201512</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.7710597765466304</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.5754272414389499</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.47116189675327447</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9746835443037974</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.1580882214188629</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>79.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.824579403004714</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8316314935265507</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.7093024668867149</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5348036593770035</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>3.037974683544304</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.0308452839058149</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>79.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.902154048556386</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.7827019164031831</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.6042322690581842</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.5187780843325491</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>3.151898734177215</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.4150166040063847</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9746835443037974</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>79.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9087504263254566</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8676893423638471</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.6170787905821147</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.5057695897036114</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.151898734177215</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.4150166040063847</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.02531645569620253</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.11392405063291139</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.5316455696202531</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.31645569620253167</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.012658227848101266</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.02531645569620253</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.11392405063291139</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.189873417721519</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.26582278481012656</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.16455696202531644</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.24050632911392406</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8535488017629234</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8540809467960901</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7453239776475826</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7453239776475826</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>5.853114641599145</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.032873673669744696</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.1645569620253164</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.329453133635873</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7453239776475826</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7526350628850755</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8784659719635303</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8367180363635383</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.7066917757815702</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>7.228148249146492</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.01987331489904111</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.70042194092827</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8415745260707618</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6803237152995465</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7453239776475827</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7453239776475827</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.5555078316564142</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7453239776475827</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7453239776475827</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7453239776475827</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8815369435254512</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8832639755303717</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.7909335386129954</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7909335386129954</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>7.566335923664887</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.026409511374626042</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.7909335386129955</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.5555078316564142</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7453239776475827</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5555078316564142</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7453239776475827</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.3662914511712809</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8097531554248965</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.6803237152995465</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.6803237152995465</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>4.2563289668924345</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.03534224213056369</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.6803237152995465</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.37573385518590974</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.7870098998631103</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.6488180734321686</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.6488180734321687</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>3.6950538985487826</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.03917249046296116</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.6488180734321687</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>79.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9373052422566673</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9341637912185374</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8064836666988354</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7453239776475826</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2658227848101267</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4562760794142697</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.7457695638110838</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8656097226301511</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7413692466772345</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.7029149471111628</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9493670886075949</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.22064789082034392</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>79.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9309482226933569</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9341637912185375</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8064836666988354</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7453239776475826</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.0632911392405062</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.389906583762789</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9386126296000709</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9067171120307167</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8483963323102193</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.802797308854193</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.3417721518987342</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.1970698836718046</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>79.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9500248998683136</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9184259697954285</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8715277068214354</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.8121045015665135</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.810126582278481</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.3016355526708046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.20253164556962025</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.11392405063291139</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9493670886075949</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.012658227848101266</v>
+      </c>
+      <c r="E26" t="n" s="456">
         <v>0.3291139240506329</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="F26" t="n" s="457">
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="H26" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.21518987341772153</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.11392405063291139</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.27848101265822783</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.16455696202531644</v>
-      </c>
-      <c r="G24" t="n" s="459">
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.25316455696202533</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.3924050632911392</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9916224814422057</v>
+        <v>0.6472737626346512</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9916224814422059</v>
+        <v>0.6485325012740728</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9833841623724894</v>
+        <v>0.4798728063275408</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9833841623724895</v>
+        <v>0.4798728063275408</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>118.36708860759688</v>
+        <v>1.8452132946147481</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.001885088953829242</v>
+        <v>0.07907408508302242</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.8734177215189873</v>
+        <v>1.7784810126582278</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.7494840895766732</v>
+        <v>1.3076374160348678</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9670444108050426</v>
+        <v>0.23027791025266953</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9670444108050426</v>
+        <v>0.23027791025266953</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9670444108050426</v>
+        <v>0.23027791025266953</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9833841623724895</v>
+        <v>0.47987280632754076</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>79.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9958373768774923</v>
+        <v>0.8714357168218755</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9958373768774923</v>
+        <v>0.8601955609998057</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9875293851773557</v>
+        <v>0.5958820003071961</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9833841623724893</v>
+        <v>0.47987280632754065</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.8734177215189873</v>
+        <v>1.3544303797468353</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.7567969732791968</v>
+        <v>1.5773880933410003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>79.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9958373768774923</v>
+        <v>0.8485211596104685</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9958373768774923</v>
+        <v>0.8601955609998057</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9875293851773557</v>
+        <v>0.595882000307196</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9833841623724893</v>
+        <v>0.47987280632754087</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.8734177215189873</v>
+        <v>2.2025316455696204</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.7567969732791968</v>
+        <v>1.4621703821886904</v>
       </c>
     </row>
     <row r="19">
@@ -6825,16 +6993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="567">
         <v>40</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.7848101265822784</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.012658227848101266</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.05063291139240506</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.05063291139240506</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.10126582278481013</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.7848101265822784</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.012658227848101266</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.05063291139240506</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.05063291139240506</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.10126582278481013</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.6472737626346512</v>
+        <v>0.8535488017629234</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.6485325012740728</v>
+        <v>0.8540809467960901</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.4798728063275408</v>
+        <v>0.7453239776475826</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.4798728063275408</v>
+        <v>0.7453239776475826</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>1.8452132946147481</v>
+        <v>5.853114641599145</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.07907408508302242</v>
+        <v>0.032873673669744696</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>1.7784810126582278</v>
+        <v>2.1645569620253164</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.3076374160348678</v>
+        <v>1.329453133635873</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475826</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.23027791025266953</v>
+        <v>0.5555078316564142</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.23027791025266953</v>
+        <v>0.5555078316564142</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.23027791025266953</v>
+        <v>0.5555078316564142</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.47987280632754076</v>
+        <v>0.7453239776475827</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>79.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.8714357168218755</v>
+        <v>0.9373052422566673</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8601955609998057</v>
+        <v>0.9341637912185374</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.5958820003071961</v>
+        <v>0.8064836666988354</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.47987280632754065</v>
+        <v>0.7453239776475826</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>1.3544303797468353</v>
+        <v>2.2658227848101267</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.5773880933410003</v>
+        <v>1.4562760794142697</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>79.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.8485211596104685</v>
+        <v>0.9309482226933569</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8601955609998057</v>
+        <v>0.9341637912185375</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.595882000307196</v>
+        <v>0.8064836666988354</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.47987280632754087</v>
+        <v>0.7453239776475826</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.2025316455696204</v>
+        <v>2.0632911392405062</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.4621703821886904</v>
+        <v>1.389906583762789</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.4936708860759494</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.13924050632911392</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.02531645569620253</v>
+        <v>0.12658227848101267</v>
       </c>
       <c r="E23" t="n" s="685">
-        <v>0.20253164556962025</v>
+        <v>0.3291139240506329</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.13924050632911392</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,19 +7406,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.24050632911392406</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.08860759493670886</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.06329113924050633</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.4430379746835443</v>
+        <v>0.27848101265822783</v>
       </c>
       <c r="F24" t="n" s="686">
         <v>0.16455696202531644</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8278358907071959</v>
+        <v>0.8028137107088382</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8388412567555302</v>
+        <v>0.8326347849903601</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.921838006378265</v>
+        <v>0.9180620743027744</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.3423242881755973</v>
+        <v>0.33221845963999225</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>5.20506203925312</v>
+        <v>4.974957221202759</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.029755812956152566</v>
+        <v>0.031311683464139664</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.4139240506329114</v>
+        <v>1.7949367088607595</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.895248737418852</v>
+        <v>0.8098589199989403</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.28006752208576957</v>
+        <v>0.24766788657855865</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.8110564890954594</v>
+        <v>0.7927686148152875</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.8185316416352136</v>
+        <v>0.8104730722897329</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.8991543087430298</v>
+        <v>0.8991969044519189</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.33385650561228697</v>
+        <v>0.3221000337673461</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>4.510602559096319</v>
+        <v>4.276295100022498</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.03243049457448752</v>
+        <v>0.03402578967221013</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.03940862511727729</v>
+        <v>0.04477191396150079</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.2841923047563094</v>
+        <v>0.25702212978338274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.8156464326538388</v>
+        <v>0.7682924960672283</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8239955385970053</v>
+        <v>0.8076071436307687</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.9006631864794655</v>
+        <v>0.8945675535468355</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3421857664319686</v>
+        <v>0.31806290194637316</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.681674157738054</v>
+        <v>4.197698183142764</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.031579336737729696</v>
+        <v>0.03669597650183723</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.03829880018116451</v>
+        <v>0.04433043620732408</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2889601442278219</v>
+        <v>0.2460286583621634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.8108867639123959</v>
+        <v>0.7673303834808259</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.81390079587172</v>
+        <v>0.8069851891958909</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.9038813345598412</v>
+        <v>0.8947673814351944</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.32702622872032194</v>
+        <v>0.31719638589921606</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.37347811176393</v>
+        <v>4.18094956461606</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.03288632842362841</v>
+        <v>0.036853752684993094</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.04238043811879184</v>
+        <v>0.044690900915072</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.26405498184951715</v>
+        <v>0.2460286583621634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.813356943971859</v>
+        <v>0.8064740506329114</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.82147693960363</v>
+        <v>0.827035179761246</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.9067784232533869</v>
+        <v>0.9158211011530254</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.3383091133713471</v>
+        <v>0.34695168841516133</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>4.601517236931335</v>
+        <v>4.781522500469391</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.03209845228832236</v>
+        <v>0.03218751346259591</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.04020656741898604</v>
+        <v>0.058917108856057866</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.2841923047563094</v>
+        <v>0.26405498184951715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.8093427373634899</v>
+        <v>0.7896424861495844</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8232317279008797</v>
+        <v>0.8183257056206042</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.9065849281635043</v>
+        <v>0.9036433847595764</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.341003264762737</v>
+        <v>0.3335483771457828</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>4.657123804656893</v>
+        <v>4.50435604231202</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.033146227215179035</v>
+        <v>0.03265114873208856</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.04680101292031029</v>
+        <v>0.05936750480656025</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.2841923047563094</v>
+        <v>0.24891611232842126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.8133598507121788</v>
+        <v>0.7965633504426608</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.826761221843209</v>
+        <v>0.8229118304654254</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.9085320846543793</v>
+        <v>0.9026038762393938</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.34651816027783666</v>
+        <v>0.3405097888032491</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.772379663720223</v>
+        <v>4.64690460479778</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.03239132165849039</v>
+        <v>0.03144701944265091</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.04577582189268628</v>
+        <v>0.056544337081802155</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.2841923047563094</v>
+        <v>0.26405498184951715</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8099379850241823</v>
+        <v>0.786538521304037</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8272197363492246</v>
+        <v>0.823784481754284</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8846127879911582</v>
+        <v>0.9193120612137886</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.34724419199560974</v>
+        <v>0.3418584169202245</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.787698078880163</v>
+        <v>4.674869103217082</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.0328958722146125</v>
+        <v>0.034232114406766996</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.03755801082821265</v>
+        <v>0.06683745582215049</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.29548469856899773</v>
+        <v>0.2392120931583174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.8086283418661306</v>
+        <v>0.7781332951160849</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8261294759248221</v>
+        <v>0.8177804042284887</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8836212210575177</v>
+        <v>0.913064438151785</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.34552147559599145</v>
+        <v>0.3327344737624979</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.751406141547151</v>
+        <v>4.487883977384738</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.033123032844490495</v>
+        <v>0.03517590309367137</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03817945816374529</v>
+        <v>0.06897763454785577</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.2961277553699704</v>
+        <v>0.2392120931583174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.8236442652894123</v>
+        <v>0.7777747488971413</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8383064898575352</v>
+        <v>0.8173894183731912</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9235672933437851</v>
+        <v>0.9018559821419931</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.3655063945469853</v>
+        <v>0.3321526741905301</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>5.184540116167435</v>
+        <v>4.476133918918482</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.031155883036008945</v>
+        <v>0.03494649179897165</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.044298982507976016</v>
+        <v>0.06490456175284545</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.27698490298846934</v>
+        <v>0.22734875216247125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.8063815141588118</v>
+        <v>0.7822066307143248</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8200041057261602</v>
+        <v>0.8206628996437039</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9138725770350696</v>
+        <v>0.9041364907014902</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.3360717804408875</v>
+        <v>0.3370698555495413</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>4.555682278389267</v>
+        <v>4.576091048719201</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.03376794614997945</v>
+        <v>0.03406703653689701</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.05071985946684749</v>
+        <v>0.06394627512403277</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.26405498184951715</v>
+        <v>0.247276884112026</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.6295445220889948</v>
+        <v>0.7037616847761096</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.6865398871767916</v>
+        <v>0.6893292510249703</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.6732165380168451</v>
+        <v>0.7071622982648476</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.5379553780495344</v>
+        <v>0.6765467981801656</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.3417721518987342</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.1970698836718046</v>
+        <v>0.413579932929269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.5876051481597097</v>
+        <v>0.7384482345855037</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.6396013018160838</v>
+        <v>0.71233788451388</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.6233969646896645</v>
+        <v>0.7390069850125636</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.4795691460192859</v>
+        <v>0.6117883119897604</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>3.810126582278481</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>1.3016355526708046</v>
+        <v>1.7567969732791968</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.6660886035757793</v>
+        <v>0.7429537497640837</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.7250311220980462</v>
+        <v>0.7172763782330398</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.7025468452700695</v>
+        <v>0.7441207614576553</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.6053629732164724</v>
+        <v>0.6179052795695672</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.5949367088607596</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>0.8846118566741669</v>
+        <v>1.7567969732791968</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.6086986433600856</v>
+        <v>0.42902148777413746</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.661447731474026</v>
+        <v>0.5476933969728395</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6332136538853924</v>
+        <v>0.4919582317272616</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.5050373010662694</v>
+        <v>0.40640209973210845</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.759493670886076</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.293129674753719</v>
+        <v>0.22064789082034392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.6520505115676399</v>
+        <v>0.5559109510504006</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.6462651531159798</v>
+        <v>0.6240822517862504</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.6078129164577032</v>
+        <v>0.5976497264896509</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.5423129328302075</v>
+        <v>0.44070331579723504</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.2658227848101267</v>
+        <v>3.3417721518987342</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.4562760794142697</v>
+        <v>1.1970698836718046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.6143892993446914</v>
+        <v>0.5098822126812029</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.6151865977081316</v>
+        <v>0.5844074092260031</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.5730567826350396</v>
+        <v>0.5605675922971874</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.5029584855952459</v>
+        <v>0.37608511090355606</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.0632911392405062</v>
+        <v>3.810126582278481</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.389906583762789</v>
+        <v>1.3016355526708046</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.6768983788127689</v>
+        <v>0.620639475666585</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.6110951299900426</v>
+        <v>0.5767212371037247</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.6315492420903607</v>
+        <v>0.49322827710054085</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.546756799961209</v>
+        <v>0.4772772091463208</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>0.8734177215189873</v>
+        <v>1.3544303797468353</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>1.7567969732791968</v>
+        <v>1.5773880933410003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.685049927101089</v>
+        <v>0.6602260817156858</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.6208032988811765</v>
+        <v>0.6287208926510592</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6417119887740862</v>
+        <v>0.5642655114421468</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.5571836825216954</v>
+        <v>0.5382549703217688</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>0.8734177215189873</v>
+        <v>2.2025316455696204</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>1.7567969732791968</v>
+        <v>1.4621703821886904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.5538919429949748</v>
+        <v>0.6620865055852898</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.5081806010913013</v>
+        <v>0.6320367152966984</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.42837410602234405</v>
+        <v>0.5930719048919129</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.41312031263503</v>
+        <v>0.5411491552967185</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>1.3544303797468353</v>
+        <v>2.2658227848101267</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.5773880933410003</v>
+        <v>1.4562760794142697</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>79.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.6755684422298616</v>
+        <v>0.6278581135502779</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.674055962265473</v>
+        <v>0.6040124573073415</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.618591317918051</v>
+        <v>0.5612712383811594</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.5705692660355064</v>
+        <v>0.50569778928555</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.2025316455696204</v>
+        <v>2.0632911392405062</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.4621703821886904</v>
+        <v>1.389906583762789</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.05063291139240506</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.06329113924050633</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="D39" t="n" s="798">
-        <v>0.012658227848101266</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.3291139240506329</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.45569620253164556</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.08860759493670886</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8228,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.012658227848101266</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
         <v>0.05063291139240506</v>
       </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E40" t="n" s="799">
-        <v>0.25316455696202533</v>
-      </c>
       <c r="F40" t="n" s="800">
-        <v>0.24050632911392406</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.3924050632911392</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="C41" t="n" s="797">
         <v>0.012658227848101266</v>
       </c>
-      <c r="C41" t="n" s="797">
-        <v>0.02531645569620253</v>
-      </c>
       <c r="D41" t="n" s="798">
-        <v>0.0379746835443038</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.27848101265822783</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.569620253164557</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.0759493670886076</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.012658227848101266</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.02531645569620253</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.12658227848101267</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.31645569620253167</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.06329113924050633</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.45569620253164556</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.20253164556962025</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C43" t="n" s="797">
-        <v>0.11392405063291139</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="D43" t="n" s="798">
-        <v>0.12658227848101267</v>
+        <v>0.012658227848101266</v>
       </c>
       <c r="E43" t="n" s="799">
         <v>0.3291139240506329</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.22784810126582278</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="G43" t="n" s="801">
-        <v>0.0</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.21518987341772153</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.11392405063291139</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.22784810126582278</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.27848101265822783</v>
+        <v>0.25316455696202533</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.16455696202531644</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.7848101265822784</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="C45" t="n" s="797">
-        <v>0.012658227848101266</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="D45" t="n" s="798">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.10126582278481013</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.7848101265822784</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.012658227848101266</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="D46" t="n" s="798">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="G46" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.10126582278481013</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
-        <v>0.4936708860759494</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="C47" t="n" s="797">
-        <v>0.13924050632911392</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="D47" t="n" s="798">
-        <v>0.02531645569620253</v>
+        <v>0.12658227848101267</v>
       </c>
       <c r="E47" t="n" s="799">
-        <v>0.20253164556962025</v>
+        <v>0.3291139240506329</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.13924050632911392</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,19 +8436,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
-        <v>0.24050632911392406</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="C48" t="n" s="797">
-        <v>0.08860759493670886</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.06329113924050633</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.4430379746835443</v>
+        <v>0.27848101265822783</v>
       </c>
       <c r="F48" t="n" s="800">
         <v>0.16455696202531644</v>
